--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_13.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>550010.467757512</v>
+        <v>577357.7000544966</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.399451438</v>
+        <v>925399.3994514376</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006066</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5475808.405183962</v>
+        <v>5475808.405183963</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,31 +735,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>8.583694061601907</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>22.0339917726843</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -905,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,10 +938,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -972,31 +972,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>116.325098768111</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1133,28 +1133,28 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,22 +1175,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>72.47049842454879</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1212,28 +1212,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>64.67263725582607</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.83685490770591</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="C11" t="n">
-        <v>40.47627913313517</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D11" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1412,10 +1412,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1446,16 +1446,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>21.01913349151777</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -1467,10 +1467,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1604,14 +1604,14 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C14" t="n">
-        <v>234.288905720311</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
@@ -1619,16 +1619,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,19 +1649,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1686,28 +1686,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1734,16 +1734,16 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1804,16 +1804,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1865,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>58.39471844666277</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
         <v>241.0142888776591</v>
@@ -1907,10 +1907,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>134.6855069843875</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>62.88143347497289</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -2056,19 +2056,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3.265316057196634</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>241.0142888776591</v>
@@ -2096,7 +2096,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2166,7 +2166,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>37.18582309281558</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>142.8009741436499</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,31 +2315,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2375,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -2403,13 +2403,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>142.8009741436498</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>79.17180122719401</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2457,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2527,10 +2527,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="E26" t="n">
         <v>241.0142888776591</v>
@@ -2600,10 +2600,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>131.7659851933074</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>45.35693110212461</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2798,10 +2798,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2849,16 +2849,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>200.3360962888297</v>
+      </c>
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,13 +2871,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>31.42349649226721</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>29.8892983910557</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3038,7 +3038,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
         <v>241.0142888776591</v>
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3089,10 +3089,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3153,13 +3153,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -3171,7 +3171,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3193,61 +3193,61 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,22 +3263,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,16 +3342,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>37.18582309281558</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3399,13 +3399,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>182.7004482653351</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,11 +3503,11 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3524,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>190.3453970742847</v>
       </c>
     </row>
     <row r="39">
@@ -3582,25 +3582,25 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>97.44849695414119</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3749,19 +3749,19 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>208.2638363878124</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3819,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>49.31110394229523</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3876,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
@@ -3885,7 +3885,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>203.8757715286906</v>
       </c>
     </row>
     <row r="43">
@@ -3949,13 +3949,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,13 +3983,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="F44" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,10 +4022,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>190.3453970742849</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4053,16 +4053,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4107,22 +4107,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>35.40726547353844</v>
+        <v>85.31372784089217</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4352,28 +4352,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T2" t="n">
-        <v>749.627473042513</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U2" t="n">
-        <v>506.1786963984129</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="V2" t="n">
-        <v>506.1786963984129</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="W2" t="n">
-        <v>506.1786963984129</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="X2" t="n">
-        <v>262.7299197543128</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>100.4273118130612</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>795.8418184905681</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>621.3887892094411</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>472.4543795481899</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>313.2169245427344</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>166.6823665696193</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>27.95154115223485</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4510,28 +4510,28 @@
         <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>72.23626279480629</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C5" t="n">
-        <v>72.23626279480629</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D5" t="n">
-        <v>72.23626279480629</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E5" t="n">
-        <v>72.23626279480629</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>315.6850394389064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>315.6850394389064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>315.6850394389064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>72.23626279480629</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4653,43 +4653,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>846.5570557448675</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>846.5570557448675</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>846.5570557448675</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>603.1082791007675</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X6" t="n">
-        <v>395.2567788952347</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y6" t="n">
-        <v>187.4964801302808</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4753,22 +4753,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>274.7999090013961</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C8" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D8" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E8" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F8" t="n">
-        <v>31.35113235729608</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>274.7999090013961</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>274.7999090013961</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>274.7999090013961</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.7999090013961</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>193.7341723913397</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,13 +4887,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O9" t="n">
         <v>781.4136778972854</v>
@@ -4905,28 +4905,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>193.7341723913397</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>193.7341723913397</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>193.7341723913397</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>193.7341723913397</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
         <v>136.0777814360265</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>559.1338160830064</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C11" t="n">
         <v>518.2486856454962</v>
@@ -5024,7 +5024,7 @@
         <v>274.7999090013961</v>
       </c>
       <c r="E11" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F11" t="n">
         <v>31.35113235729608</v>
@@ -5060,31 +5060,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X11" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y11" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>964.0571555106362</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="C12" t="n">
-        <v>817.1412885554689</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="D12" t="n">
-        <v>668.2068788942177</v>
+        <v>439.147110064363</v>
       </c>
       <c r="E12" t="n">
-        <v>508.9694238887622</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F12" t="n">
-        <v>362.4348659156472</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G12" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H12" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5127,16 +5127,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5163,7 +5163,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y12" t="n">
-        <v>964.0571555106362</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="13">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>255.9366034337592</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C14" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D14" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5297,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>742.8341567219593</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V14" t="n">
-        <v>742.8341567219593</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W14" t="n">
-        <v>742.8341567219593</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X14" t="n">
-        <v>499.3853800778592</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y14" t="n">
-        <v>499.3853800778592</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="15">
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="C15" t="n">
-        <v>817.1412885554689</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>65.60123993063803</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
         <v>65.60123993063803</v>
@@ -5382,25 +5382,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>125.0774898247174</v>
       </c>
     </row>
     <row r="16">
@@ -5452,13 +5452,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S16" t="n">
         <v>19.28114311021272</v>
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5540,25 +5540,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>802.5825927271064</v>
+        <v>743.5980286395683</v>
       </c>
       <c r="T17" t="n">
-        <v>802.5825927271064</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U17" t="n">
-        <v>802.5825927271064</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V17" t="n">
-        <v>559.1338160830064</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="W17" t="n">
-        <v>559.1338160830064</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X17" t="n">
-        <v>315.6850394389064</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y17" t="n">
-        <v>72.23626279480629</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>900.5405560409666</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C18" t="n">
-        <v>726.0875267598396</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="D18" t="n">
-        <v>577.1531170985884</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E18" t="n">
-        <v>417.9156620931329</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F18" t="n">
-        <v>271.3811041200179</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G18" t="n">
-        <v>132.6502787026334</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>900.5405560409666</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>900.5405560409666</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>900.5405560409666</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>900.5405560409666</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V18" t="n">
-        <v>900.5405560409666</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W18" t="n">
-        <v>900.5405560409666</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X18" t="n">
-        <v>900.5405560409666</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y18" t="n">
-        <v>900.5405560409666</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="19">
@@ -5704,16 +5704,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>720.6083788665362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="C20" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D20" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E20" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F20" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5777,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y20" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
     </row>
     <row r="21">
@@ -5805,13 +5805,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>380.2300195200815</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C21" t="n">
-        <v>205.7769902389545</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D21" t="n">
-        <v>56.84258057770322</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
         <v>19.28114311021272</v>
@@ -5835,46 +5835,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="W21" t="n">
-        <v>964.0571555106362</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="X21" t="n">
-        <v>756.2056553051034</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="Y21" t="n">
-        <v>548.4453565401495</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="22">
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C22" t="n">
         <v>829.5248650203655</v>
@@ -5944,16 +5944,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>518.2486856454962</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="C23" t="n">
-        <v>274.7999090013961</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="D23" t="n">
-        <v>274.7999090013961</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="E23" t="n">
-        <v>31.35113235729608</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="F23" t="n">
-        <v>31.35113235729608</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="G23" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6014,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V23" t="n">
-        <v>720.6083788665362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W23" t="n">
-        <v>720.6083788665362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X23" t="n">
-        <v>720.6083788665362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y23" t="n">
-        <v>720.6083788665362</v>
+        <v>752.9257720901863</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>640.636862475431</v>
+        <v>486.9119902784999</v>
       </c>
       <c r="C24" t="n">
-        <v>466.183833194304</v>
+        <v>312.4589609973729</v>
       </c>
       <c r="D24" t="n">
-        <v>317.2494235330527</v>
+        <v>163.5245513361216</v>
       </c>
       <c r="E24" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6069,19 +6069,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6090,28 +6090,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>884.0856391195312</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>884.0856391195312</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>884.0856391195312</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>884.0856391195312</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V24" t="n">
-        <v>884.0856391195312</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W24" t="n">
-        <v>640.636862475431</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X24" t="n">
-        <v>640.636862475431</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y24" t="n">
-        <v>640.636862475431</v>
+        <v>655.1273272985679</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="C26" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="D26" t="n">
         <v>749.627473042513</v>
@@ -6248,28 +6248,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>752.9257720901863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T26" t="n">
-        <v>752.9257720901863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U26" t="n">
-        <v>752.9257720901863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y26" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>152.3780978509273</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6306,19 +6306,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>817.0725441421839</v>
       </c>
       <c r="T27" t="n">
-        <v>588.4532163200711</v>
+        <v>817.0725441421839</v>
       </c>
       <c r="U27" t="n">
-        <v>360.2295980564601</v>
+        <v>817.0725441421839</v>
       </c>
       <c r="V27" t="n">
-        <v>360.2295980564601</v>
+        <v>817.0725441421839</v>
       </c>
       <c r="W27" t="n">
-        <v>360.2295980564601</v>
+        <v>573.6237674980839</v>
       </c>
       <c r="X27" t="n">
-        <v>152.3780978509273</v>
+        <v>365.7722672925511</v>
       </c>
       <c r="Y27" t="n">
-        <v>152.3780978509273</v>
+        <v>158.0119685275972</v>
       </c>
     </row>
     <row r="28">
@@ -6421,13 +6421,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6497,16 +6497,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>477.1596022224361</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X29" t="n">
-        <v>477.1596022224361</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y29" t="n">
-        <v>233.7108255783361</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E30" t="n">
         <v>19.28114311021272</v>
@@ -6543,49 +6543,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>932.3162499628916</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>932.3162499628916</v>
       </c>
       <c r="T30" t="n">
-        <v>933.8659450146204</v>
+        <v>730.1296553216575</v>
       </c>
       <c r="U30" t="n">
-        <v>705.6423267510095</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="V30" t="n">
-        <v>470.4902185192667</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="W30" t="n">
-        <v>227.0414418751666</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="X30" t="n">
-        <v>227.0414418751666</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>501.9060370580465</v>
       </c>
     </row>
     <row r="31">
@@ -6640,16 +6640,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U31" t="n">
         <v>19.28114311021272</v>
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="33">
@@ -6780,49 +6780,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>933.9571464551993</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>705.7335281915883</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V33" t="n">
-        <v>470.5814199598456</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W33" t="n">
-        <v>227.1326433157456</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="34">
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
         <v>829.5248650203655</v>
@@ -6895,13 +6895,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6959,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U35" t="n">
-        <v>720.6083788665362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V35" t="n">
-        <v>720.6083788665362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W35" t="n">
-        <v>477.1596022224361</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X35" t="n">
-        <v>477.1596022224361</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y35" t="n">
-        <v>233.7108255783361</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>56.84258057770322</v>
       </c>
       <c r="E36" t="n">
         <v>19.28114311021272</v>
@@ -7020,46 +7020,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O36" t="n">
-        <v>735.0935810768601</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>678.3417187247995</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>678.3417187247995</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>434.8929420806995</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X36" t="n">
-        <v>227.0414418751666</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="37">
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
         <v>829.5248650203655</v>
@@ -7132,13 +7132,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>467.067986854209</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>194.4883050441255</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
         <v>20.03527576299844</v>
@@ -7257,16 +7257,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>248.2447175439888</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7284,19 +7284,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W39" t="n">
-        <v>500.6814290152826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X39" t="n">
-        <v>402.2486038090794</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y39" t="n">
-        <v>194.4883050441255</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="40">
@@ -7354,16 +7354,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
         <v>19.28114311021272</v>
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>485.167420504237</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>485.167420504237</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>485.167420504237</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>485.167420504237</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7430,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>485.167420504237</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>485.167420504237</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X41" t="n">
-        <v>485.167420504237</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y41" t="n">
-        <v>485.167420504237</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>69.84447166430675</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="C42" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="D42" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H42" t="n">
         <v>20.03527576299844</v>
@@ -7491,22 +7491,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7515,25 +7515,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V42" t="n">
-        <v>728.9050472788936</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W42" t="n">
-        <v>485.4562706347935</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X42" t="n">
-        <v>277.6047704292607</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="Y42" t="n">
-        <v>69.84447166430675</v>
+        <v>133.4044113554191</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>559.1338160830064</v>
+      </c>
+      <c r="C44" t="n">
+        <v>559.1338160830064</v>
+      </c>
+      <c r="D44" t="n">
+        <v>559.1338160830064</v>
+      </c>
+      <c r="E44" t="n">
+        <v>518.2486856454962</v>
+      </c>
+      <c r="F44" t="n">
         <v>274.7999090013961</v>
-      </c>
-      <c r="C44" t="n">
-        <v>274.7999090013961</v>
-      </c>
-      <c r="D44" t="n">
-        <v>274.7999090013961</v>
-      </c>
-      <c r="E44" t="n">
-        <v>274.7999090013961</v>
-      </c>
-      <c r="F44" t="n">
-        <v>31.35113235729608</v>
       </c>
       <c r="G44" t="n">
         <v>31.35113235729608</v>
@@ -7670,28 +7670,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>761.6974622895962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T44" t="n">
-        <v>761.6974622895962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U44" t="n">
-        <v>761.6974622895962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V44" t="n">
-        <v>761.6974622895962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W44" t="n">
-        <v>761.6974622895962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X44" t="n">
-        <v>518.2486856454962</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y44" t="n">
-        <v>518.2486856454962</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="45">
@@ -7701,13 +7701,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.28114311021272</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E45" t="n">
         <v>19.28114311021272</v>
@@ -7734,10 +7734,10 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N45" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
         <v>964.0571555106362</v>
@@ -7755,22 +7755,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>298.4948343740486</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W45" t="n">
-        <v>55.04605772994853</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X45" t="n">
-        <v>19.28114311021272</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.28114311021272</v>
+        <v>670.1213740781145</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7979,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,19 +8301,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,16 +8535,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>303.312501347746</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8693,7 +8693,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8775,19 +8775,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>301.248502863135</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,10 +9006,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>184.6294155606472</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M15" t="n">
         <v>383.1483227996774</v>
@@ -9243,16 +9243,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N18" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,22 +9483,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,22 +9717,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9954,22 +9954,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>382.1386950879875</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10203,13 +10203,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10589,7 +10589,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10668,7 +10668,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10680,10 +10680,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,7 +10905,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>369.8307175917693</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
@@ -10917,7 +10917,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,16 +11148,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>186.8580120236956</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,10 +11297,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11382,13 +11382,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>302.3991346476606</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22592,28 +22592,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,31 +22623,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>103.6517501748946</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,22 +22671,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>247.8610253924609</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22729,7 +22729,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>155.2593996044852</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22793,19 +22793,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>354.4504772539638</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>184.4282419190523</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,10 +22826,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22838,10 +22838,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22860,31 +22860,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,13 +22908,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>83.83962992671059</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -22923,13 +22923,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22960,13 +22960,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22993,7 +22993,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23021,7 +23021,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23030,19 +23030,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,22 +23063,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>150.6253511395826</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23100,28 +23100,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,19 +23145,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>168.1279498935992</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -23197,7 +23197,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>140.6136200195524</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23218,7 +23218,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>182.3977453746509</v>
       </c>
       <c r="C11" t="n">
-        <v>324.7966126378724</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D11" t="n">
         <v>113.6687527430239</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
@@ -23300,10 +23300,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23318,7 +23318,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23334,16 +23334,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>136.6259469638832</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23355,10 +23355,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23403,7 +23403,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>130.9839860506966</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23507,16 +23507,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,19 +23537,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23558,7 +23558,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23574,28 +23574,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>32.605133915851</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23622,16 +23622,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23692,16 +23692,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S16" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>330.3082731757329</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23753,7 +23753,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>150.6253511395826</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
         <v>86.73796959247585</v>
@@ -23795,10 +23795,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23811,7 +23811,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>38.02299200392821</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23832,7 +23832,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,7 +23856,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.27640067767025</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23944,7 +23944,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="20">
@@ -23966,16 +23966,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>362.0075757138109</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>165.8617568640524</v>
@@ -23984,7 +23984,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24017,7 +24017,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24054,7 +24054,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>120.4592573625854</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24093,10 +24093,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>28.88219696018794</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24111,7 +24111,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24184,7 +24184,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,31 +24203,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>182.3977453746509</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>412.0374214579384</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24254,7 +24254,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24263,7 +24263,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -24291,13 +24291,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>14.84410631175118</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24330,7 +24330,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>20.98603292544912</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24345,13 +24345,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24415,10 +24415,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U25" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24446,7 +24446,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>292.2667739183906</v>
       </c>
       <c r="E26" t="n">
         <v>140.9160811946027</v>
@@ -24488,10 +24488,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -24500,7 +24500,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>324.4869424129383</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24522,7 +24522,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>40.94251379500832</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24534,7 +24534,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24567,28 +24567,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>126.3262400017132</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24661,7 +24661,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24686,10 +24686,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24701,7 +24701,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24737,16 +24737,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>148.9048724285834</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,13 +24759,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24804,28 +24804,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>68.73433766037593</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>170.2754303037659</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24880,10 +24880,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24892,7 +24892,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>239.2941050228172</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24917,7 +24917,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>174.9274946967227</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24926,7 +24926,7 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>174.288448637476</v>
@@ -24938,7 +24938,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24977,10 +24977,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24993,7 +24993,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>31.11902363415049</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25041,13 +25041,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25059,7 +25059,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25135,7 +25135,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,22 +25151,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>292.2667739183906</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25199,7 +25199,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25208,19 +25208,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,16 +25230,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>120.4592573625854</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25287,13 +25287,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>43.24093381563969</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25372,7 +25372,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25391,10 +25391,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25403,7 +25403,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25412,7 +25412,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25445,7 +25445,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25454,10 +25454,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y38" t="n">
-        <v>195.8925415817689</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25470,25 +25470,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25524,19 +25524,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>108.3244882493363</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25594,7 +25594,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25606,7 +25606,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25637,19 +25637,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>198.612209353899</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25679,22 +25679,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25707,7 +25707,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>123.3973950460205</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25722,7 +25722,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25755,7 +25755,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25764,7 +25764,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
@@ -25773,7 +25773,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>1.806924248613768</v>
       </c>
     </row>
     <row r="43">
@@ -25837,13 +25837,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25871,13 +25871,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>341.4540909391266</v>
       </c>
       <c r="F44" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25910,10 +25910,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>18.67467251196047</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25941,16 +25941,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25995,22 +25995,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>170.365719729939</v>
+        <v>120.4592573625853</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26032,7 +26032,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26089,7 +26089,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142974</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>473557.9167142974</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142976</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
   </sheetData>
@@ -26320,10 +26320,10 @@
         <v>108004.437145366</v>
       </c>
       <c r="E2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="F2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="G2" t="n">
         <v>108004.437145366</v>
@@ -26344,16 +26344,16 @@
         <v>108004.437145366</v>
       </c>
       <c r="M2" t="n">
+        <v>108004.4371453661</v>
+      </c>
+      <c r="N2" t="n">
+        <v>108004.4371453661</v>
+      </c>
+      <c r="O2" t="n">
         <v>108004.437145366</v>
       </c>
-      <c r="N2" t="n">
-        <v>108004.437145366</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>108004.4371453661</v>
-      </c>
-      <c r="P2" t="n">
-        <v>108004.437145366</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="C4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="D4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="E4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="F4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="G4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="H4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="P4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-24494.38102719356</v>
+        <v>-21225.79564764732</v>
       </c>
       <c r="C6" t="n">
-        <v>56275.05050435414</v>
+        <v>59543.63588390037</v>
       </c>
       <c r="D6" t="n">
-        <v>56275.05050435414</v>
+        <v>59543.63588390041</v>
       </c>
       <c r="E6" t="n">
-        <v>89902.65050435415</v>
+        <v>93171.23588390037</v>
       </c>
       <c r="F6" t="n">
-        <v>89902.65050435415</v>
+        <v>93171.2358839004</v>
       </c>
       <c r="G6" t="n">
-        <v>89902.65050435413</v>
+        <v>93171.2358839004</v>
       </c>
       <c r="H6" t="n">
-        <v>89902.65050435413</v>
+        <v>93171.23588390039</v>
       </c>
       <c r="I6" t="n">
-        <v>89902.65050435413</v>
+        <v>93171.23588390039</v>
       </c>
       <c r="J6" t="n">
-        <v>26842.70790524791</v>
+        <v>30111.29328479416</v>
       </c>
       <c r="K6" t="n">
-        <v>89902.65050435413</v>
+        <v>93171.2358839004</v>
       </c>
       <c r="L6" t="n">
-        <v>89902.65050435411</v>
+        <v>93171.23588390039</v>
       </c>
       <c r="M6" t="n">
-        <v>89902.65050435413</v>
+        <v>93171.23588390042</v>
       </c>
       <c r="N6" t="n">
-        <v>89902.65050435414</v>
+        <v>93171.23588390043</v>
       </c>
       <c r="O6" t="n">
-        <v>89902.65050435415</v>
+        <v>93171.2358839004</v>
       </c>
       <c r="P6" t="n">
-        <v>89902.65050435414</v>
+        <v>93171.23588390042</v>
       </c>
     </row>
   </sheetData>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35021,19 +35021,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,16 +35255,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>161.1784674257276</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35495,19 +35495,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>169.9067907798017</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>46.78797658628819</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>241.0142888776591</v>
@@ -35963,16 +35963,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N18" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35981,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N24" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O24" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36911,10 +36911,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -36923,13 +36923,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37400,10 +37400,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37625,7 +37625,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>231.276337811895</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
@@ -37637,7 +37637,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
@@ -37868,16 +37868,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>55.51629994036225</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38102,13 +38102,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>577357.7000544966</v>
+        <v>579062.4560687634</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514376</v>
+        <v>925399.3994514378</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5475808.405183963</v>
+        <v>5475808.405183962</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80.33470701582003</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -716,16 +718,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,25 +740,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,10 +861,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,67 +898,67 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I5" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -975,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -1023,16 +1025,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>35.00246782997241</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1212,28 +1214,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1297,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1367,67 +1369,67 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.809496073036132</v>
+      </c>
+      <c r="G11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D11" t="n">
+      <c r="H11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E11" t="n">
+      <c r="I11" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1446,16 +1448,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>146.1932996118735</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>21.01913349151777</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -1467,7 +1469,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1515,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1540,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1628,7 +1630,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>1.809496073036188</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>21.85442600983729</v>
       </c>
       <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1695,19 +1697,19 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1734,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
@@ -1746,7 +1748,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>18.37030639505931</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1828,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1865,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>58.39471844666277</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -1901,7 +1903,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1923,10 +1925,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>134.6855069843875</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1941,10 +1943,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1971,10 +1973,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>21.7973599200313</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2065,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,16 +2083,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>241.0142888776591</v>
@@ -2099,10 +2101,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2123,13 +2125,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2138,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2157,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2208,7 +2210,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>142.8009741436499</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2217,13 +2219,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>155.6728463193873</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2239,67 +2241,67 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2321,64 +2323,64 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G23" t="n">
-        <v>3.26531605719669</v>
-      </c>
-      <c r="H23" t="n">
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2394,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>142.8009741436498</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2418,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2451,19 +2453,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="25">
@@ -2527,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,76 +2554,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2646,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>45.35693110212461</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2710,61 +2712,61 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2798,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2813,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2834,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2852,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>241.0142888776591</v>
@@ -2874,10 +2876,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2916,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>31.42349649226721</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -2928,7 +2930,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>164.8304714084692</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2992,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3004,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3029,70 +3031,70 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>190.3453970742849</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3.26531605719669</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>135.4141600157168</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3156,16 +3158,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>222.3082294474576</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
@@ -3202,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3247,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,76 +3265,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>62.4162677022923</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,16 +3344,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>37.18582309281558</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3396,22 +3398,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3424,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3506,13 +3508,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>241.0142888776591</v>
@@ -3560,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -3591,19 +3593,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>58.1958364687712</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3639,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3755,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3803,10 +3805,10 @@
         <v>212.285385643442</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
     </row>
     <row r="42">
@@ -3816,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3834,13 +3836,13 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3867,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3879,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>184.630888657454</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>203.8757715286906</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3974,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>40.47627913313494</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="E44" t="n">
-        <v>40.47627913313517</v>
+        <v>241.014288877659</v>
       </c>
       <c r="F44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4040,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4053,16 +4055,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>29.0524176386246</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4110,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X45" t="n">
-        <v>85.31372784089217</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4144,49 +4146,49 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4352,28 +4354,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>812.6742080953335</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T2" t="n">
-        <v>587.3248651012614</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U2" t="n">
-        <v>343.8760884571613</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V2" t="n">
-        <v>100.4273118130612</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W2" t="n">
-        <v>100.4273118130612</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X2" t="n">
-        <v>100.4273118130612</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y2" t="n">
-        <v>100.4273118130612</v>
+        <v>40.6788758079141</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4410,16 +4412,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O3" t="n">
         <v>781.4136778972854</v>
@@ -4431,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4507,31 +4509,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C5" t="n">
-        <v>720.6083788665362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D5" t="n">
-        <v>720.6083788665362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E5" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4604,13 +4606,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y5" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>862.8876260635219</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G6" t="n">
         <v>223.7040404982626</v>
@@ -4647,19 +4649,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4671,25 +4673,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="W6" t="n">
-        <v>862.8876260635219</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="X6" t="n">
-        <v>862.8876260635219</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="Y6" t="n">
-        <v>862.8876260635219</v>
+        <v>223.7040404982626</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4857,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4905,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4945,22 +4947,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>761.6974622895962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C11" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D11" t="n">
-        <v>274.7999090013961</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E11" t="n">
-        <v>31.35113235729608</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F11" t="n">
-        <v>31.35113235729608</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G11" t="n">
-        <v>31.35113235729608</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H11" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5075,16 +5077,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>588.0815197256143</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C12" t="n">
-        <v>588.0815197256143</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D12" t="n">
-        <v>439.147110064363</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E12" t="n">
-        <v>417.9156620931329</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F12" t="n">
-        <v>271.3811041200179</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G12" t="n">
-        <v>132.6502787026334</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I12" t="n">
         <v>19.28114311021272</v>
@@ -5163,7 +5165,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y12" t="n">
-        <v>756.2968567456824</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="13">
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
         <v>19.28114311021272</v>
@@ -5215,34 +5217,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>720.6083788665362</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="C14" t="n">
-        <v>720.6083788665362</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="D14" t="n">
-        <v>477.1596022224361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E14" t="n">
-        <v>477.1596022224361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F14" t="n">
-        <v>477.1596022224361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G14" t="n">
-        <v>233.7108255783361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H14" t="n">
-        <v>233.7108255783361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I14" t="n">
-        <v>21.10891692136039</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5303,25 +5305,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="U14" t="n">
-        <v>720.6083788665362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="V14" t="n">
-        <v>720.6083788665362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="W14" t="n">
-        <v>720.6083788665362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="X14" t="n">
-        <v>720.6083788665362</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="Y14" t="n">
-        <v>720.6083788665362</v>
+        <v>487.4018176583718</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>125.0774898247174</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="C15" t="n">
-        <v>125.0774898247174</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="D15" t="n">
-        <v>125.0774898247174</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="E15" t="n">
-        <v>125.0774898247174</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="F15" t="n">
-        <v>125.0774898247174</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5361,19 +5363,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5382,25 +5384,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U15" t="n">
-        <v>360.2295980564601</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V15" t="n">
-        <v>125.0774898247174</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W15" t="n">
-        <v>125.0774898247174</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="X15" t="n">
-        <v>125.0774898247174</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="Y15" t="n">
-        <v>125.0774898247174</v>
+        <v>279.9389693285341</v>
       </c>
     </row>
     <row r="16">
@@ -5452,28 +5454,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
         <v>19.28114311021272</v>
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5540,25 +5542,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>743.5980286395683</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>518.2486856454962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>274.7999090013961</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>862.8876260635219</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="C18" t="n">
-        <v>726.8416594126254</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="D18" t="n">
-        <v>577.9072497513741</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E18" t="n">
-        <v>418.6697947459187</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F18" t="n">
-        <v>272.1352367728036</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G18" t="n">
-        <v>133.4044113554191</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5619,25 +5621,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>862.8876260635219</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="U18" t="n">
-        <v>862.8876260635219</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="V18" t="n">
-        <v>862.8876260635219</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="W18" t="n">
-        <v>862.8876260635219</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="X18" t="n">
-        <v>862.8876260635219</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="Y18" t="n">
-        <v>862.8876260635219</v>
+        <v>667.4527462414319</v>
       </c>
     </row>
     <row r="19">
@@ -5713,7 +5715,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>752.9257720901863</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C20" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D20" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E20" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>752.9257720901863</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W20" t="n">
-        <v>752.9257720901863</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X20" t="n">
-        <v>752.9257720901863</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y20" t="n">
-        <v>752.9257720901863</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>342.668582052591</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
         <v>19.28114311021272</v>
@@ -5835,10 +5837,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N21" t="n">
         <v>473.4149733950735</v>
@@ -5856,25 +5858,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>718.6442178376129</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>718.6442178376129</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>718.6442178376129</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V21" t="n">
-        <v>718.6442178376129</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W21" t="n">
-        <v>718.6442178376129</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X21" t="n">
-        <v>718.6442178376129</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y21" t="n">
-        <v>510.883919072659</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>752.9257720901863</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C23" t="n">
-        <v>752.9257720901863</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D23" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -5987,7 +5989,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6014,25 +6016,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>752.9257720901863</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V23" t="n">
-        <v>752.9257720901863</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W23" t="n">
-        <v>752.9257720901863</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="X23" t="n">
-        <v>752.9257720901863</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y23" t="n">
-        <v>752.9257720901863</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>486.9119902784999</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C24" t="n">
-        <v>312.4589609973729</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>163.5245513361216</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6072,46 +6074,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>862.8876260635219</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>862.8876260635219</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>862.8876260635219</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
-        <v>655.1273272985679</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>812.6742080953335</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C26" t="n">
-        <v>812.6742080953335</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D26" t="n">
-        <v>749.627473042513</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>812.6742080953335</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y26" t="n">
-        <v>812.6742080953335</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6312,7 +6314,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
         <v>542.809531908403</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>817.0725441421839</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T27" t="n">
-        <v>817.0725441421839</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U27" t="n">
-        <v>817.0725441421839</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V27" t="n">
-        <v>817.0725441421839</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W27" t="n">
-        <v>573.6237674980839</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X27" t="n">
-        <v>365.7722672925511</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6412,22 +6414,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>518.2486856454962</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C29" t="n">
-        <v>518.2486856454962</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D29" t="n">
-        <v>518.2486856454962</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E29" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W29" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X29" t="n">
-        <v>518.2486856454962</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y29" t="n">
-        <v>518.2486856454962</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>501.9060370580465</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C30" t="n">
-        <v>327.4530077769195</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
         <v>19.28114311021272</v>
@@ -6552,40 +6554,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>851.8101010141643</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>932.3162499628916</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>932.3162499628916</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>730.1296553216575</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>501.9060370580465</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V30" t="n">
-        <v>501.9060370580465</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="W30" t="n">
-        <v>501.9060370580465</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="X30" t="n">
-        <v>501.9060370580465</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y30" t="n">
-        <v>501.9060370580465</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="31">
@@ -6640,22 +6642,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>953.9655401424092</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="C32" t="n">
-        <v>761.6974622895962</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="D32" t="n">
-        <v>761.6974622895962</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="E32" t="n">
-        <v>518.2486856454962</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="F32" t="n">
-        <v>274.7999090013961</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="G32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W32" t="n">
-        <v>953.9655401424092</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X32" t="n">
-        <v>953.9655401424092</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y32" t="n">
-        <v>953.9655401424092</v>
+        <v>266.0282188019862</v>
       </c>
     </row>
     <row r="33">
@@ -6780,13 +6782,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N33" t="n">
         <v>473.4149733950735</v>
@@ -6804,25 +6806,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>634.6640077999109</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V33" t="n">
-        <v>399.5118995681682</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W33" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X33" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H34" t="n">
         <v>829.5248650203655</v>
@@ -6895,13 +6897,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>812.6742080953335</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C35" t="n">
-        <v>569.2254314512334</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>812.6742080953335</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y35" t="n">
-        <v>812.6742080953335</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>380.2300195200815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>205.7769902389545</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>56.84258057770322</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
         <v>19.28114311021272</v>
@@ -7020,19 +7022,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7044,22 +7046,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X36" t="n">
-        <v>756.2056553051034</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>548.4453565401495</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7156,10 @@
         <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
         <v>262.7299197543128</v>
@@ -7208,13 +7210,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
         <v>506.1786963984129</v>
@@ -7227,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>964.0571555106362</v>
+        <v>560.6897102588255</v>
       </c>
       <c r="C39" t="n">
-        <v>817.1412885554689</v>
+        <v>386.2366809776985</v>
       </c>
       <c r="D39" t="n">
-        <v>668.2068788942177</v>
+        <v>237.3022713164472</v>
       </c>
       <c r="E39" t="n">
-        <v>508.9694238887622</v>
+        <v>78.06481631099172</v>
       </c>
       <c r="F39" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7287,16 +7289,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W39" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X39" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y39" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7421,40 +7423,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O41" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P41" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W41" t="n">
-        <v>749.627473042513</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="X41" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="Y41" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543127</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>133.4044113554191</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C42" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7494,46 +7496,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2059550252818</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="N42" t="n">
-        <v>712.019119383956</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972852</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q42" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W42" t="n">
-        <v>547.1910343172051</v>
+        <v>777.5613083818946</v>
       </c>
       <c r="X42" t="n">
-        <v>339.3395341116723</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y42" t="n">
-        <v>133.4044113554191</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="43">
@@ -7591,10 +7593,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
         <v>19.28114311021272</v>
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>559.1338160830064</v>
+        <v>559.1338160830062</v>
       </c>
       <c r="C44" t="n">
-        <v>559.1338160830064</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D44" t="n">
-        <v>559.1338160830064</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E44" t="n">
-        <v>518.2486856454962</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="F44" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="G44" t="n">
-        <v>31.35113235729608</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7658,40 +7660,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O44" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P44" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="R44" t="n">
-        <v>802.5825927271064</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="S44" t="n">
-        <v>802.5825927271064</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="T44" t="n">
-        <v>802.5825927271064</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="U44" t="n">
-        <v>802.5825927271064</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="V44" t="n">
-        <v>802.5825927271064</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="W44" t="n">
-        <v>802.5825927271064</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="X44" t="n">
-        <v>559.1338160830064</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="Y44" t="n">
-        <v>559.1338160830064</v>
+        <v>802.5825927271062</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>501.9060370580465</v>
+        <v>49.38115216564955</v>
       </c>
       <c r="C45" t="n">
-        <v>327.4530077769195</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="D45" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7734,43 +7736,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>725.4530095217538</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972852</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470251</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152824</v>
       </c>
       <c r="W45" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711824</v>
       </c>
       <c r="X45" t="n">
-        <v>877.8816728430684</v>
+        <v>49.38115216564955</v>
       </c>
       <c r="Y45" t="n">
-        <v>670.1213740781145</v>
+        <v>49.38115216564955</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
         <v>19.28114311021272</v>
@@ -7834,22 +7836,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7982,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8058,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8295,10 +8297,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8307,10 +8309,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>185.8815939223662</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8532,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -9009,7 +9011,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>383.1483227996774</v>
@@ -9018,13 +9020,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>359.8407857361378</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9483,13 +9485,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>368.5691090902119</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9720,10 +9722,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9960,10 +9962,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N27" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10200,16 +10202,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>177.2597568922521</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10428,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,7 +10439,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>231.1529892133073</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10668,22 +10670,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11145,19 +11147,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>312.0408247018198</v>
       </c>
       <c r="N42" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11382,16 +11384,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236954</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>302.3991346476606</v>
+        <v>361.5500862927562</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22592,10 +22594,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,7 +22606,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22613,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22626,25 +22628,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>247.8610253924609</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,10 +22749,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22784,28 +22786,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>184.4282419190523</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22844,7 +22846,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22863,19 +22865,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -22911,16 +22913,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>197.7981193194529</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -22960,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23100,28 +23102,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,22 +23147,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23185,7 +23187,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -23197,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23255,31 +23257,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>182.3977453746509</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>405.0665496686753</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23315,7 +23317,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23334,16 +23336,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>26.51519937644221</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>136.6259469638832</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23355,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23403,7 +23405,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23428,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H13" t="n">
         <v>162.2271725074396</v>
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23507,7 +23509,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23516,7 +23518,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>10.13979328157633</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>201.2414235542941</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23558,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23583,19 +23585,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>32.605133915851</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23622,7 +23624,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23634,7 +23636,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>233.3246767658603</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23716,7 +23718,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23753,7 +23755,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23780,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>150.6253511395826</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23789,7 +23791,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23811,10 +23813,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>38.02299200392821</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23829,10 +23831,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23859,10 +23861,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>178.3673687747903</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23953,10 +23955,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23969,16 +23971,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>362.0075757138109</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>174.288448637476</v>
@@ -23987,10 +23989,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>20.13049249612121</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,13 +24013,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24026,10 +24028,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24045,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24096,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>28.88219696018794</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24105,13 +24107,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>50.10013888409017</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24127,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24187,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24209,19 +24211,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>412.0374214579384</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24254,19 +24256,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24282,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>14.84410631175118</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24306,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24339,19 +24341,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="25">
@@ -24415,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24424,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>292.2667739183906</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24488,7 +24490,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24506,10 +24508,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24534,7 +24536,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24567,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>126.3262400017132</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24652,7 +24654,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24686,13 +24688,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>179.6356836433646</v>
       </c>
       <c r="F29" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24701,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24740,7 +24742,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>148.9048724285834</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>128.71681180081</v>
@@ -24762,10 +24764,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24804,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>68.73433766037593</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24816,7 +24818,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>67.97011574095609</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24880,7 +24882,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
@@ -24892,13 +24894,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2941050228172</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24917,19 +24919,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>174.9274946967227</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>412.0374214579384</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24938,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,13 +24961,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24977,10 +24979,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24993,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>31.11902363415049</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25044,16 +25046,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>3.633152633517255</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
@@ -25090,7 +25092,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I34" t="n">
         <v>155.4504749272583</v>
@@ -25135,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>292.2667739183906</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25199,7 +25201,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25217,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25230,16 +25232,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>120.4592573625854</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25284,22 +25286,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25312,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25330,7 +25332,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25394,13 +25396,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>174.288448637476</v>
@@ -25448,16 +25450,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25479,19 +25481,19 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>86.87337592461267</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25527,7 +25529,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25594,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25603,7 +25605,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>141.7195527858216</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25643,7 +25645,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25691,10 +25693,10 @@
         <v>136.955583073971</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>145.2236497783946</v>
       </c>
     </row>
     <row r="42">
@@ -25704,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25722,13 +25724,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25755,7 +25757,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25767,13 +25769,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>67.06409450346564</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.806924248613768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25831,13 +25833,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25862,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858216</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>324.7966126378726</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>113.668752743024</v>
       </c>
       <c r="E44" t="n">
-        <v>341.4540909391266</v>
+        <v>140.9160811946028</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25928,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25941,16 +25943,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>143.6560813496911</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25965,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25998,19 +26000,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X45" t="n">
-        <v>120.4592573625853</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26032,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26074,7 +26076,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U46" t="n">
         <v>286.3190293564909</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>473557.9167142974</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142976</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>473557.9167142976</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142974</v>
       </c>
     </row>
   </sheetData>
@@ -26326,13 +26328,13 @@
         <v>108004.437145366</v>
       </c>
       <c r="G2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="H2" t="n">
         <v>108004.437145366</v>
       </c>
       <c r="I2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="J2" t="n">
         <v>108004.437145366</v>
@@ -26344,16 +26346,16 @@
         <v>108004.437145366</v>
       </c>
       <c r="M2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="N2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="O2" t="n">
         <v>108004.437145366</v>
       </c>
       <c r="P2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26424,7 +26426,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="E4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="F4" t="n">
         <v>179.5324977039669</v>
@@ -26454,7 +26456,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="P4" t="n">
         <v>179.5324977039669</v>
@@ -26519,28 +26521,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21225.79564764732</v>
+        <v>-21225.79564764729</v>
       </c>
       <c r="C6" t="n">
-        <v>59543.63588390037</v>
+        <v>59543.6358839004</v>
       </c>
       <c r="D6" t="n">
-        <v>59543.63588390041</v>
+        <v>59543.63588390039</v>
       </c>
       <c r="E6" t="n">
-        <v>93171.23588390037</v>
+        <v>93171.2358839004</v>
       </c>
       <c r="F6" t="n">
         <v>93171.2358839004</v>
       </c>
       <c r="G6" t="n">
-        <v>93171.2358839004</v>
+        <v>93171.23588390042</v>
       </c>
       <c r="H6" t="n">
-        <v>93171.23588390039</v>
+        <v>93171.23588390036</v>
       </c>
       <c r="I6" t="n">
-        <v>93171.23588390039</v>
+        <v>93171.23588390042</v>
       </c>
       <c r="J6" t="n">
         <v>30111.29328479416</v>
@@ -26549,19 +26551,19 @@
         <v>93171.2358839004</v>
       </c>
       <c r="L6" t="n">
+        <v>93171.23588390037</v>
+      </c>
+      <c r="M6" t="n">
+        <v>93171.23588390037</v>
+      </c>
+      <c r="N6" t="n">
         <v>93171.23588390039</v>
       </c>
-      <c r="M6" t="n">
-        <v>93171.23588390042</v>
-      </c>
-      <c r="N6" t="n">
-        <v>93171.23588390043</v>
-      </c>
       <c r="O6" t="n">
-        <v>93171.2358839004</v>
+        <v>93171.23588390039</v>
       </c>
       <c r="P6" t="n">
-        <v>93171.23588390042</v>
+        <v>93171.23588390037</v>
       </c>
     </row>
   </sheetData>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
     </row>
   </sheetData>
@@ -34778,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -34945,7 +34947,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35015,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35027,10 +35029,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>43.28534947792182</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35185,7 +35187,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35252,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35729,7 +35731,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
         <v>241.0142888776591</v>
@@ -35738,13 +35740,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,13 +36205,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>226.4350751681936</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36440,10 +36442,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36455,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36680,10 +36682,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N27" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36838,7 +36840,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M29" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N29" t="n">
         <v>207.9338608153932</v>
@@ -36920,16 +36922,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
+        <v>113.3808631277494</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
       <c r="P30" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
@@ -37157,7 +37159,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>99.81127712997396</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37388,22 +37390,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37786,7 +37788,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37865,19 +37867,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798015</v>
       </c>
       <c r="N42" t="n">
-        <v>99.8112771299739</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38102,16 +38104,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>240.0046611659691</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036207</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
